--- a/BillOfMaterials.xlsx
+++ b/BillOfMaterials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\AMA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF02D163-5E15-4C3B-BFD4-C0023412B9AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4971C71-7C40-401E-B325-C8A865BA461D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Grey ABS Case" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="173">
   <si>
     <t>COMPONENT</t>
   </si>
@@ -544,6 +544,12 @@
   </si>
   <si>
     <t>https://www.amazon.com/106-Buna-N-Ring-Durometer-Black/dp/B000FMYR48/ref=pd_lpo_3?pd_rd_i=B000FMYR48&amp;psc=1</t>
+  </si>
+  <si>
+    <t>Amazon.com: Clear Epoxy Resin Art Resin Kit 16 Ounce Crystal Jewelry Resin 2 Part Epoxy Resin Kit with Bonus Measuring Cups Sticks Spreader and Gloves : Arts, Crafts &amp; Sewing</t>
+  </si>
+  <si>
+    <t>Optically Clear Resin</t>
   </si>
 </sst>
 </file>
@@ -2165,7 +2171,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
@@ -3263,10 +3269,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3408,13 +3414,31 @@
         <v>164</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D8" s="1" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C7" s="5">
+        <v>11.99</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5">
+        <f>C7*D7</f>
+        <v>11.99</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D9" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E8" s="2">
-        <f>SUM(E2:E6)</f>
-        <v>73.19</v>
+      <c r="E9" s="2">
+        <f>SUM(E2:E7)</f>
+        <v>85.179999999999993</v>
       </c>
     </row>
   </sheetData>

--- a/BillOfMaterials.xlsx
+++ b/BillOfMaterials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\AMA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4971C71-7C40-401E-B325-C8A865BA461D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B9EB47-6427-42CC-8BCC-6967D2E2F2A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Grey ABS Case" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="MKR1400 Experimentation" sheetId="4" r:id="rId4"/>
     <sheet name="Flurometer" sheetId="5" r:id="rId5"/>
     <sheet name="Old PCB" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="176">
   <si>
     <t>COMPONENT</t>
   </si>
@@ -261,15 +262,9 @@
     <t>Silicone Sealant</t>
   </si>
   <si>
-    <t>https://www.mcmaster.com/74955A53/</t>
-  </si>
-  <si>
     <t>Plexiglass screen</t>
   </si>
   <si>
-    <t>https://www.homedepot.com/p/Falken-Design-12-in-x-12-in-x-1-8-in-Thick-Acrylic-Clear-Sheet-Falken-Design-ACRYLIC-CL-1-8-1212/308669852</t>
-  </si>
-  <si>
     <t>Temp/press/humidity sensor</t>
   </si>
   <si>
@@ -550,6 +545,21 @@
   </si>
   <si>
     <t>Optically Clear Resin</t>
+  </si>
+  <si>
+    <t>Amazon.com: Henkel Corporation 908570 2.7 oz Tub Clear Silicone Waterproof Sealant, Single Tube, 2 Fl Oz : Industrial &amp; Scientific</t>
+  </si>
+  <si>
+    <t>Amazon.com: Acrylic Circle Disks, 1/8 Inch Thick Round Plexiglass Sheets (6 in, 3 Pack) : Industrial &amp; Scientific</t>
+  </si>
+  <si>
+    <t>Amazon.com: MMOBIEL SG90 9g Micro Servo Motor Kit for RC Drone/Car/Airplane/Helicopter/Vehicles/Robots/Compatible with Arduino Projects and Raspberry Pi Incl. Screws and 3 Servo Arms : Toys &amp; Games</t>
+  </si>
+  <si>
+    <t>Amazon.com: 4Pcs SG90 9g Micro Servos for RC Robot Helicopter Airplane Controls Car Boat : Toys &amp; Games</t>
+  </si>
+  <si>
+    <t>9 g servo (see column G if not available)</t>
   </si>
 </sst>
 </file>
@@ -1008,7 +1018,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1025,6 +1035,7 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="40">
     <cellStyle name="20% - Accent1 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -1446,10 +1457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1694,10 +1705,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C12" s="5">
         <v>39</v>
@@ -1710,7 +1721,7 @@
         <v>39</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1788,239 +1799,228 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C17" s="5">
-        <v>9.99</v>
+        <v>24</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" s="2">
-        <f t="shared" ref="E17:E28" si="1">C17*D17</f>
-        <v>9.99</v>
+        <f t="shared" ref="E17:E27" si="1">C17*D17</f>
+        <v>24</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C18" s="5">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C19" s="5">
-        <v>6</v>
+        <v>26.16</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>26.16</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C20" s="5">
-        <v>26.16</v>
+        <v>0.72</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" si="1"/>
-        <v>26.16</v>
+        <v>0.72</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C21" s="5">
-        <v>0.72</v>
+        <v>12.49</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="1"/>
-        <v>0.72</v>
+        <v>12.49</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C22" s="5">
-        <v>12.49</v>
+        <v>4.99</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="1"/>
-        <v>12.49</v>
+        <v>4.99</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C23" s="5">
-        <v>4.99</v>
+        <v>7.99</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" s="2">
         <f t="shared" si="1"/>
-        <v>4.99</v>
+        <v>7.99</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C24" s="5">
-        <v>7.99</v>
+        <v>6.49</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" s="2">
         <f t="shared" si="1"/>
-        <v>7.99</v>
+        <v>6.49</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C25" s="5">
-        <v>6.49</v>
+        <v>1.7</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E25" s="2">
         <f t="shared" si="1"/>
-        <v>6.49</v>
+        <v>3.4</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C26" s="5">
-        <v>1.7</v>
+        <v>5.99</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E26" s="2">
         <f t="shared" si="1"/>
-        <v>3.4</v>
+        <v>5.99</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C27" s="5">
-        <v>5.99</v>
+        <v>8.99</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27" s="2">
         <f t="shared" si="1"/>
-        <v>5.99</v>
+        <v>8.99</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>70</v>
-      </c>
-      <c r="C28" s="5">
-        <v>8.99</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28" s="2">
-        <f t="shared" si="1"/>
-        <v>8.99</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="C28" s="5"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="3"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C29" s="5"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="3"/>
+      <c r="D29" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E29" s="2">
+        <f>SUM(E2:E27)</f>
+        <v>354.49000000000007</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D30" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E30" s="2">
-        <f>SUM(E2:E28)</f>
-        <v>364.48000000000008</v>
-      </c>
+      <c r="D30" s="1"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
+      <c r="A31" s="1"/>
+    </row>
+    <row r="32" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="7"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="3"/>
     </row>
     <row r="33" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
@@ -2117,29 +2117,22 @@
       <c r="A46" s="7"/>
       <c r="C46" s="5"/>
       <c r="D46" s="7"/>
-      <c r="E46" s="5"/>
+      <c r="E46" s="8"/>
       <c r="F46" s="3"/>
     </row>
     <row r="47" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="7"/>
+      <c r="A47" s="9"/>
       <c r="C47" s="5"/>
       <c r="D47" s="7"/>
       <c r="E47" s="8"/>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="9"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="7"/>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D48" s="1"/>
       <c r="E48" s="8"/>
-      <c r="F48" s="3"/>
-    </row>
-    <row r="49" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D49" s="1"/>
-      <c r="E49" s="8"/>
-    </row>
-    <row r="53" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="E53" s="10"/>
+    </row>
+    <row r="52" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E52" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2152,15 +2145,14 @@
     <hyperlink ref="F11" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
     <hyperlink ref="F14" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
     <hyperlink ref="F15" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="F17" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="F18" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="F20" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="F21" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="F23" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="F24" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="F26" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="F27" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="F28" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="F17" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="F19" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="F20" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="F22" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="F23" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="F25" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="F26" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="F27" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2169,10 +2161,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2219,7 +2211,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="2">
-        <f t="shared" ref="E2:E31" si="0">C2*D2</f>
+        <f>C2*D2</f>
         <v>19.95</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -2240,7 +2232,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" si="0"/>
+        <f>C3*D3</f>
         <v>31.98</v>
       </c>
       <c r="F3" s="3" t="s">
@@ -2261,7 +2253,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" si="0"/>
+        <f>C4*D4</f>
         <v>42</v>
       </c>
       <c r="F4" s="3" t="s">
@@ -2279,7 +2271,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" si="0"/>
+        <f>C5*D5</f>
         <v>21.99</v>
       </c>
       <c r="F5" s="3" t="s">
@@ -2300,7 +2292,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" si="0"/>
+        <f>C6*D6</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="F6" s="3" t="s">
@@ -2321,7 +2313,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" si="0"/>
+        <f>C7*D7</f>
         <v>9.9499999999999993</v>
       </c>
       <c r="F7" s="3" t="s">
@@ -2342,7 +2334,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" si="0"/>
+        <f>C8*D8</f>
         <v>9.9499999999999993</v>
       </c>
       <c r="F8" s="3" t="s">
@@ -2363,7 +2355,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" si="0"/>
+        <f>C9*D9</f>
         <v>13.95</v>
       </c>
       <c r="F9" s="4" t="s">
@@ -2384,7 +2376,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" si="0"/>
+        <f>C10*D10</f>
         <v>6.95</v>
       </c>
       <c r="F10" s="3" t="s">
@@ -2405,7 +2397,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" si="0"/>
+        <f>C11*D11</f>
         <v>3.56</v>
       </c>
       <c r="F11" s="3" t="s">
@@ -2414,10 +2406,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C12" s="5">
         <v>39</v>
@@ -2426,380 +2418,372 @@
         <v>1</v>
       </c>
       <c r="E12" s="2">
-        <f t="shared" si="0"/>
+        <f>C12*D12</f>
         <v>39</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
       </c>
       <c r="C13" s="5">
-        <v>40</v>
+        <v>14.95</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" si="0"/>
-        <v>40</v>
+        <f>C13*D13</f>
+        <v>14.95</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="C14" s="5">
-        <v>14.95</v>
+        <v>4.25</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" s="2">
-        <f t="shared" si="0"/>
-        <v>14.95</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>43</v>
+        <f>C14*D14</f>
+        <v>4.25</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="C15" s="5">
-        <v>12.7</v>
+        <v>0.21</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" si="0"/>
-        <v>12.7</v>
+        <f>C15*D15</f>
+        <v>0.21</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C16" s="5">
-        <v>0.21</v>
+        <v>0.73</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" s="2">
-        <f t="shared" si="0"/>
-        <v>0.21</v>
+        <f>C16*D16</f>
+        <v>0.73</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="C17" s="5">
-        <v>0.73</v>
+        <v>14.99</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" s="2">
-        <f t="shared" si="0"/>
-        <v>0.73</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <f>C17*D17</f>
+        <v>14.99</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="5">
+        <v>24</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2">
+        <f>C18*D18</f>
+        <v>24</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0.72</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2">
+        <f>C19*D19</f>
+        <v>0.72</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="5">
+        <v>12.49</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2">
+        <f>C20*D20</f>
+        <v>12.49</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="5">
+        <v>6</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2">
+        <f>C21*D21</f>
+        <v>6</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="5">
+        <v>26.16</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2">
+        <f>C22*D22</f>
+        <v>26.16</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="5">
-        <v>12.99</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18" s="2">
-        <f t="shared" si="0"/>
-        <v>12.99</v>
-      </c>
-      <c r="F18" s="3" t="s">
+      <c r="B23" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="5">
-        <v>9.99</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19" s="2">
-        <f t="shared" si="0"/>
-        <v>9.99</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="5">
-        <v>24</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20" s="2">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="5">
-        <v>0.72</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21" s="2">
-        <f t="shared" si="0"/>
-        <v>0.72</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="5">
-        <v>12.49</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22" s="2">
-        <f t="shared" si="0"/>
-        <v>12.49</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>52</v>
-      </c>
       <c r="C23" s="5">
-        <v>6</v>
+        <v>9.5</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" s="2">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f>C23*D23</f>
+        <v>9.5</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C24" s="5">
-        <v>26.16</v>
+        <v>7.99</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" s="2">
-        <f t="shared" si="0"/>
-        <v>26.16</v>
+        <f>C24*D24</f>
+        <v>7.99</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>79</v>
-      </c>
-      <c r="B25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="5">
+        <v>8.49</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2">
+        <f>C25*D25</f>
+        <v>8.49</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C25" s="5">
-        <v>9.5</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25" s="2">
-        <f t="shared" si="0"/>
-        <v>9.5</v>
-      </c>
-      <c r="F25" s="3" t="s">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="5">
+        <v>6.49</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2">
+        <f>C26*D26</f>
+        <v>6.49</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="5">
+        <v>5.99</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2">
+        <f>C27*D27</f>
+        <v>5.99</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="5">
+        <v>8.99</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2">
+        <f>C28*D28</f>
+        <v>8.99</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>167</v>
+      </c>
+      <c r="C29" s="5">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" s="2">
+        <f>C29*D29</f>
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>175</v>
+      </c>
+      <c r="C30" s="5">
+        <v>6.99</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2">
+        <f>C30*D30</f>
+        <v>6.99</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="D32" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="5">
-        <v>7.99</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26" s="2">
-        <f t="shared" si="0"/>
-        <v>7.99</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" s="5">
-        <v>8.49</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27" s="2">
-        <f t="shared" si="0"/>
-        <v>8.49</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>64</v>
-      </c>
-      <c r="C28" s="5">
-        <v>6.49</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28" s="2">
-        <f t="shared" si="0"/>
-        <v>6.49</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29" s="5">
-        <v>5.99</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29" s="2">
-        <f t="shared" si="0"/>
-        <v>5.99</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>70</v>
-      </c>
-      <c r="C30" s="5">
-        <v>8.99</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30" s="2">
-        <f t="shared" si="0"/>
-        <v>8.99</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>169</v>
-      </c>
-      <c r="C31" s="5">
-        <v>2.2200000000000002</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31" s="2">
-        <f t="shared" si="0"/>
-        <v>2.2200000000000002</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="D33" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E33" s="2">
-        <f>SUM(E2:E31)</f>
-        <v>410.99000000000012</v>
-      </c>
-      <c r="F33" s="3"/>
+      <c r="E32" s="2">
+        <f>SUM(E2:E30)</f>
+        <v>361.54000000000013</v>
+      </c>
+      <c r="F32" s="3"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F36" s="3"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F37" s="3"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D38" s="1"/>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="39" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="1"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="3"/>
     </row>
     <row r="40" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="1"/>
+      <c r="A40" s="7"/>
       <c r="C40" s="5"/>
       <c r="D40" s="7"/>
       <c r="E40" s="5"/>
@@ -2893,7 +2877,7 @@
       <c r="A53" s="7"/>
       <c r="C53" s="5"/>
       <c r="D53" s="7"/>
-      <c r="E53" s="5"/>
+      <c r="E53" s="8"/>
       <c r="F53" s="3"/>
     </row>
     <row r="54" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -2903,20 +2887,13 @@
       <c r="E54" s="8"/>
       <c r="F54" s="3"/>
     </row>
-    <row r="55" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A55" s="7"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="7"/>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="9"/>
+      <c r="D55" s="1"/>
       <c r="E55" s="8"/>
-      <c r="F55" s="3"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="9"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="8"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E60" s="10"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E59" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2927,18 +2904,21 @@
     <hyperlink ref="F9" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
     <hyperlink ref="F10" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
     <hyperlink ref="F11" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="F14" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="F19" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="F20" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="F21" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="F24" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="F26" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="F27" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="F29" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="F30" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="F13" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="F18" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="F19" r:id="rId10" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="F22" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="F24" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="F25" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="F27" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="F28" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="F14" r:id="rId16" display="https://www.amazon.com/Loctite-Silicone-Waterproof-2-7-Ounce-908570/dp/B0002BBX3U/ref=pd_lpo_2?pd_rd_i=B0002BBX3U&amp;psc=1" xr:uid="{1F6D8AAD-B9B8-43FE-87F1-433B4407F947}"/>
+    <hyperlink ref="F17" r:id="rId17" display="https://www.amazon.com/dp/B08FX5ZL5K/ref=sspa_dk_detail_5?psc=1&amp;pd_rd_i=B08FX5ZL5K&amp;pd_rd_w=e5jQO&amp;pf_rd_p=887084a2-5c34-4113-a4f8-b7947847c308&amp;pd_rd_wg=bWF6o&amp;pf_rd_r=CS22RDP4FSCF2Y27BBMY&amp;pd_rd_r=89968cbb-363e-4c35-bec5-f1fa7e3104dd&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEzMTFWMjAzUEJGRlUxJmVuY3J5cHRlZElkPUEwNjA0NzUzMVk1RloxWTcyRlMzMCZlbmNyeXB0ZWRBZElkPUEwNTg3NTg5SlRYUlUxTzdQVDkzJndpZGdldE5hbWU9c3BfZGV0YWlsJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==" xr:uid="{B0428DB6-A15F-4F01-BC00-7D082CE88D76}"/>
+    <hyperlink ref="F30" r:id="rId18" display="https://www.amazon.com/MMOBIEL-Airplane-Helicopter-Compatible-Raspberry/dp/B097RD8RB7/ref=sr_1_21?dchild=1&amp;keywords=servo+motor&amp;qid=1630634747&amp;s=industrial&amp;sr=1-21" xr:uid="{05A6965A-683F-4324-910E-F4409CD4BC98}"/>
+    <hyperlink ref="G30" r:id="rId19" display="https://www.amazon.com/Micro-Servos-Helicopter-Airplane-Controls/dp/B07MLR1498/ref=sr_1_1_sspa?dchild=1&amp;keywords=servo%2Bmotor&amp;qid=1630634747&amp;s=industrial&amp;sr=1-1-spons&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUExWEFCNklEU1hBRUlSJmVuY3J5cHRlZElkPUEwNjMzMjQyMkVOU1NTMkE5REhVWiZlbmNyeXB0ZWRBZElkPUEwMzAzNTAzMUdNV0YxTTJFN0NFRCZ3aWRnZXROYW1lPXNwX2F0ZiZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU&amp;th=1" xr:uid="{1D7CB87D-C970-4DAE-84E2-174699211067}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId17"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId20"/>
 </worksheet>
 </file>
 
@@ -2982,7 +2962,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C2" s="6">
         <v>16.899999999999999</v>
@@ -2995,15 +2975,15 @@
         <v>16.899999999999999</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C3" s="11">
         <v>0.95</v>
@@ -3016,15 +2996,15 @@
         <v>1.9</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C4" s="6">
         <v>9.0399999999999991</v>
@@ -3037,15 +3017,15 @@
         <v>9.0399999999999991</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C5" s="5">
         <v>9.5</v>
@@ -3058,12 +3038,12 @@
         <v>9.5</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C6" s="5">
         <v>14.99</v>
@@ -3076,15 +3056,15 @@
         <v>14.99</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C7" s="5">
         <v>1.05</v>
@@ -3097,7 +3077,7 @@
         <v>2.1</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -3107,7 +3087,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D10" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E10" s="6">
         <f>SUM(E2:E7)</f>
@@ -3187,10 +3167,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C3" s="6">
         <v>68.900000000000006</v>
@@ -3203,15 +3183,15 @@
         <v>68.900000000000006</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C4" s="6">
         <v>2.95</v>
@@ -3224,7 +3204,7 @@
         <v>2.95</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -3250,7 +3230,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D7" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E7" s="6">
         <f>SUM(E2:E5)</f>
@@ -3271,7 +3251,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -3308,10 +3288,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C2" s="5">
         <v>48</v>
@@ -3324,18 +3304,18 @@
         <v>48</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C3" s="5">
         <v>2.92</v>
@@ -3348,15 +3328,15 @@
         <v>2.92</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C4" s="5">
         <v>3.31</v>
@@ -3369,15 +3349,15 @@
         <v>6.62</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C5" s="5">
         <v>14.94</v>
@@ -3390,15 +3370,15 @@
         <v>14.94</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C6" s="5">
         <v>0.71</v>
@@ -3411,12 +3391,12 @@
         <v>0.71</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C7" s="5">
         <v>11.99</v>
@@ -3429,12 +3409,12 @@
         <v>11.99</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D9" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E9" s="2">
         <f>SUM(E2:E7)</f>
@@ -3472,7 +3452,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -3484,7 +3464,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -3492,7 +3472,7 @@
     </row>
     <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B2" s="5">
         <v>0.45</v>
@@ -3505,15 +3485,15 @@
         <v>0.9</v>
       </c>
       <c r="E2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B3" s="5">
         <v>0.98</v>
@@ -3526,15 +3506,15 @@
         <v>1.96</v>
       </c>
       <c r="E3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B4" s="5">
         <v>0.42</v>
@@ -3547,15 +3527,15 @@
         <v>0.42</v>
       </c>
       <c r="E4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B5" s="5">
         <v>0.67</v>
@@ -3568,15 +3548,15 @@
         <v>1.34</v>
       </c>
       <c r="E5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B6" s="5">
         <v>0.1</v>
@@ -3589,15 +3569,15 @@
         <v>0.30000000000000004</v>
       </c>
       <c r="E6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B7" s="5">
         <v>0.1</v>
@@ -3610,15 +3590,15 @@
         <v>0.2</v>
       </c>
       <c r="E7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B8" s="5">
         <v>0.1</v>
@@ -3631,15 +3611,15 @@
         <v>0.1</v>
       </c>
       <c r="E8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B9" s="5">
         <v>0.1</v>
@@ -3652,15 +3632,15 @@
         <v>0.2</v>
       </c>
       <c r="E9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B10" s="5">
         <v>0.1</v>
@@ -3673,15 +3653,15 @@
         <v>0.1</v>
       </c>
       <c r="E10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B11" s="5">
         <v>0.37</v>
@@ -3694,15 +3674,15 @@
         <v>0.37</v>
       </c>
       <c r="E11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B12" s="5">
         <v>0.7</v>
@@ -3715,15 +3695,15 @@
         <v>0.7</v>
       </c>
       <c r="E12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B13" s="5">
         <v>0.61</v>
@@ -3736,15 +3716,15 @@
         <v>1.22</v>
       </c>
       <c r="E13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B14" s="5">
         <v>0.81</v>
@@ -3757,15 +3737,15 @@
         <v>1.62</v>
       </c>
       <c r="E14" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B15" s="5">
         <v>1.1200000000000001</v>
@@ -3778,15 +3758,15 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="E15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B16" s="5">
         <v>8.99</v>
@@ -3799,12 +3779,12 @@
         <v>17.98</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B17" s="5">
         <v>14.99</v>
@@ -3817,12 +3797,12 @@
         <v>14.99</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D19" s="8">
         <f>SUM(D2:D17)</f>
@@ -3850,4 +3830,40 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB3D3147-0C46-41A1-A682-186F1A61D0D5}">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="5">
+        <v>9.99</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2">
+        <f>C1*D1</f>
+        <v>9.99</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F1" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/BillOfMaterials.xlsx
+++ b/BillOfMaterials.xlsx
@@ -1,28 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\AMA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\PycharmProjects\Drone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B9EB47-6427-42CC-8BCC-6967D2E2F2A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E70D21A-E69A-4BCE-8617-4C870C9A3E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="809" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Grey ABS Case" sheetId="1" r:id="rId1"/>
     <sheet name="3D Printed Buoy" sheetId="2" r:id="rId2"/>
     <sheet name="Buoy Sensors" sheetId="3" r:id="rId3"/>
-    <sheet name="MKR1400 Experimentation" sheetId="4" r:id="rId4"/>
-    <sheet name="Flurometer" sheetId="5" r:id="rId5"/>
-    <sheet name="Old PCB" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
+    <sheet name="Old PCB" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -31,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="200">
   <si>
     <t>COMPONENT</t>
   </si>
@@ -142,15 +146,6 @@
     <t>https://www.adafruit.com/product/4654?gclid=EAIaIQobChMI0a7O6eH38QIVCWxvBB0nXAA6EAQYASABEgIBAvD_BwE</t>
   </si>
   <si>
-    <t>GPS</t>
-  </si>
-  <si>
-    <t>Air530 GPS Module</t>
-  </si>
-  <si>
-    <t>https://www.seeedstudio.com/Grove-GPS-Air530-p-4584.html</t>
-  </si>
-  <si>
     <t>LTE SIM7600 Breakout</t>
   </si>
   <si>
@@ -178,9 +173,6 @@
     <t>https://www.mouser.com/ProductDetail/TE-Connectivity-Holsworthy/ROX5SSJ150R?qs=sGAEpiMZZMtlubZbdhIBIMLPczR3K4Ue5uevzLwiHc4%3D</t>
   </si>
   <si>
-    <t>Folding Grapnel Anchor</t>
-  </si>
-  <si>
     <t>SUNCOR Folding Grapnel Anchors | West Marine</t>
   </si>
   <si>
@@ -262,30 +254,12 @@
     <t>Silicone Sealant</t>
   </si>
   <si>
-    <t>Plexiglass screen</t>
-  </si>
-  <si>
-    <t>Temp/press/humidity sensor</t>
-  </si>
-  <si>
-    <t>DHT-22</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/en/products/detail/dfrobot/SEN0137/6588461?s=N4IgjCBcoLQBxVAYygMwIYBsDOBTANCAPZQDa4A7AMwIC6AvvYQExkgDKAogHIAMYVCiAZA</t>
-  </si>
-  <si>
     <t>Amazon.com: VONVOFF DC Power Pigtail Cable,18AWG Male and Female DC Connector Plug,12V 5A Barrel Jack Connector for CCTV Security Camera and Lighting Power Adapter (10 Pairs) : Electronics</t>
   </si>
   <si>
     <t>Total</t>
   </si>
   <si>
-    <t>pH Electrode</t>
-  </si>
-  <si>
-    <t>0-14 pH 3000mm 300cm 118in Replacement BNC Electrode Probe Connector Cable Sensor for ph Controller Monitor Tester Meter Kit Set ph of Seawater or Saltwater Hydroponics Aquarium Plant Pool Spa: Amazon.com: Industrial &amp; Scientific</t>
-  </si>
-  <si>
     <t>Photoresistor</t>
   </si>
   <si>
@@ -319,24 +293,6 @@
     <t>https://www.digikey.com/en/products/detail/inolux-corporation/HV-5RGB25/7604615</t>
   </si>
   <si>
-    <t>Microcontroller/GSM</t>
-  </si>
-  <si>
-    <t>MKR 1400</t>
-  </si>
-  <si>
-    <t>Amazon.com: Arduino MKR GSM 1400 [ABX00018] : Electronics</t>
-  </si>
-  <si>
-    <t>GPRS Antenna</t>
-  </si>
-  <si>
-    <t>Adafruit 3dBi GSM Antenna</t>
-  </si>
-  <si>
-    <t>https://www.adafruit.com/product/3237</t>
-  </si>
-  <si>
     <t>Red Filter</t>
   </si>
   <si>
@@ -355,12 +311,6 @@
     <t>OP07</t>
   </si>
   <si>
-    <t>Resistor</t>
-  </si>
-  <si>
-    <t>5GOhm</t>
-  </si>
-  <si>
     <t>Photodiode</t>
   </si>
   <si>
@@ -373,9 +323,6 @@
     <t>Capacitor</t>
   </si>
   <si>
-    <t>10 pF</t>
-  </si>
-  <si>
     <t>COMPONENT NAME</t>
   </si>
   <si>
@@ -523,9 +470,6 @@
     <t>https://www.mouser.com/ProductDetail/Vishay-Cera-Mite/561R10TCCQ10?qs=ohMLqj34oV1qAxjp44jWYQ%3D%3D</t>
   </si>
   <si>
-    <t>https://www.galco.com/buy/Ohmite/SM108035007FE?source=googleshopping</t>
-  </si>
-  <si>
     <t>GPRS/GSM/GPS Shield</t>
   </si>
   <si>
@@ -535,12 +479,6 @@
     <t>https://www.robotshop.com/en/sim808-gps-gprsgsm-arduino-shield.html</t>
   </si>
   <si>
-    <t>O-ring 4.4 mm ID</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/106-Buna-N-Ring-Durometer-Black/dp/B000FMYR48/ref=pd_lpo_3?pd_rd_i=B000FMYR48&amp;psc=1</t>
-  </si>
-  <si>
     <t>Amazon.com: Clear Epoxy Resin Art Resin Kit 16 Ounce Crystal Jewelry Resin 2 Part Epoxy Resin Kit with Bonus Measuring Cups Sticks Spreader and Gloves : Arts, Crafts &amp; Sewing</t>
   </si>
   <si>
@@ -550,9 +488,6 @@
     <t>Amazon.com: Henkel Corporation 908570 2.7 oz Tub Clear Silicone Waterproof Sealant, Single Tube, 2 Fl Oz : Industrial &amp; Scientific</t>
   </si>
   <si>
-    <t>Amazon.com: Acrylic Circle Disks, 1/8 Inch Thick Round Plexiglass Sheets (6 in, 3 Pack) : Industrial &amp; Scientific</t>
-  </si>
-  <si>
     <t>Amazon.com: MMOBIEL SG90 9g Micro Servo Motor Kit for RC Drone/Car/Airplane/Helicopter/Vehicles/Robots/Compatible with Arduino Projects and Raspberry Pi Incl. Screws and 3 Servo Arms : Toys &amp; Games</t>
   </si>
   <si>
@@ -560,6 +495,147 @@
   </si>
   <si>
     <t>9 g servo (see column G if not available)</t>
+  </si>
+  <si>
+    <t>UV LED</t>
+  </si>
+  <si>
+    <t>220 kOhm Resistor</t>
+  </si>
+  <si>
+    <t>6 x 5.6 Mohm Resistors</t>
+  </si>
+  <si>
+    <t>1 x 0.1 Ohm Resistor</t>
+  </si>
+  <si>
+    <t>Electrical Tape</t>
+  </si>
+  <si>
+    <t>1 nF</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Glass-Vials-Dram-Pack-12/dp/B002JV89OC/ref=bmx_dp_3kbesyen_3/142-3191690-8910228?pd_rd_w=ysrgG&amp;pf_rd_p=862b4b8b-7a18-40e3-a54d-9d43f8d57f92&amp;pf_rd_r=9X0PDZ13QEC4W8TDH6RB&amp;pd_rd_r=139c4d35-c881-4110-9a72-9aecf35064cb&amp;pd_rd_wg=sLgww&amp;pd_rd_i=B002JV89OC&amp;psc=1</t>
+  </si>
+  <si>
+    <t>Small vial (roughly 1/2 - 3/4 inch diameter should be fine)</t>
+  </si>
+  <si>
+    <t>UV5TZ-390-15 Bivar | Mouser</t>
+  </si>
+  <si>
+    <t>pH Meter</t>
+  </si>
+  <si>
+    <t>https://www.dfrobot.com/product-1025.html</t>
+  </si>
+  <si>
+    <t>https://www.thingsmobile.com/business/shop</t>
+  </si>
+  <si>
+    <t>Things Mobile SIM Card with $10 euros ($11.56 pre-loaded)</t>
+  </si>
+  <si>
+    <t>https://www.mcmaster.com/5308T115/</t>
+  </si>
+  <si>
+    <t>316 Stainless Steel Shaft</t>
+  </si>
+  <si>
+    <t>https://www.mcmaster.com/1263K133/</t>
+  </si>
+  <si>
+    <t>Set Screws</t>
+  </si>
+  <si>
+    <t>Felt Pieces</t>
+  </si>
+  <si>
+    <t>Silicone Grease</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/product/B000DZFUPC/ref=ppx_yo_dt_b_search_asin_title?ie=UTF8&amp;psc=1</t>
+  </si>
+  <si>
+    <t>O rings</t>
+  </si>
+  <si>
+    <t>https://www.adafruit.com/product/353?gclid=CjwKCAjwiY6MBhBqEiwARFSCPms4qRdb8UEHlfM2lHsZy1fx-bQukRKlQwAGPjsEc0BY5iifoUGIXxoCrYMQAvD_BwE</t>
+  </si>
+  <si>
+    <t>3.7 V 6.6 Ah battery</t>
+  </si>
+  <si>
+    <t>1 x 100 Ohm Resistor</t>
+  </si>
+  <si>
+    <t>2 x 220 Ohm Resistors</t>
+  </si>
+  <si>
+    <t>CUSTOM TURBIDITY SENSOR</t>
+  </si>
+  <si>
+    <t>BME 280 PRESSURE, TEMPERATURE, HUMIDITY SENSOR</t>
+  </si>
+  <si>
+    <t>COMMERCIAL TURBIDITY SENSOR</t>
+  </si>
+  <si>
+    <t>pH PROBE</t>
+  </si>
+  <si>
+    <t>Magnets</t>
+  </si>
+  <si>
+    <t>Pipe Cleaners</t>
+  </si>
+  <si>
+    <t>FLUOROMETER</t>
+  </si>
+  <si>
+    <t>80 x 20 mm Perf Board</t>
+  </si>
+  <si>
+    <t>Folding Grapnel Anchor (If no moorings available)</t>
+  </si>
+  <si>
+    <t>Real Time Clock</t>
+  </si>
+  <si>
+    <t>https://www.diymore.cc/products/diymore-ds3231-at24c32-iic-precision-real-time-clock-memory-module-for-arduino</t>
+  </si>
+  <si>
+    <t>Relay</t>
+  </si>
+  <si>
+    <t>IRL 7833 MOSFET (needed in fluorometer also)</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/nte-electronics</t>
+  </si>
+  <si>
+    <t>-inc/R73-1D10-5%2F6/11655844?utm_adgroup=General&amp;utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=Shopping_DK%2BSupplier_NTE%20Electronics&amp;utm_term=&amp;utm_content=General&amp;gclid=CjwKCAjwiY6MBhBqEiwARFSCPvk5GTMvMUVIlpouOziBqMiKNzt5CrrNAmKSv3wozyIH78KfpWLppRoCd9YQAvD_BwE</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Infineon-IR/IRL7833PBF?qs=9%252BKlkBgLFf3m53w7MGFaEw%3D%3D</t>
+  </si>
+  <si>
+    <t>INERTIAL MEASUREMENT UNIT</t>
+  </si>
+  <si>
+    <t>WATER TEMPERATURE SENSOR</t>
+  </si>
+  <si>
+    <t>https://www.adafruit.com/product/372?gclid=CjwKCAjwiY6MBhBqEiwARFSCPn8jCFLPYh5fnylnUoux-FaXrN62UIpJ0WrZlE4pepGrMKgulB5CghoCp3QQAvD_BwE</t>
+  </si>
+  <si>
+    <t>10 kOhm Resistor</t>
+  </si>
+  <si>
+    <t>Epoxy Waterproof 10k Thermistor</t>
+  </si>
+  <si>
+    <t>IRL7833 MOSFET</t>
   </si>
 </sst>
 </file>
@@ -571,7 +647,7 @@
     <numFmt numFmtId="165" formatCode="_(\$* #,##0.00_);_(\$* \(#,##0.00\);_(\$* \-??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="\$#,##0.00"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -698,8 +774,15 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="32">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -886,6 +969,24 @@
         <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -1018,7 +1119,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1036,6 +1137,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="33" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="40">
     <cellStyle name="20% - Accent1 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -1705,10 +1824,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="B12" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="C12" s="5">
         <v>39</v>
@@ -1721,12 +1840,12 @@
         <v>39</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C13" s="5">
         <v>40</v>
@@ -1739,15 +1858,15 @@
         <v>40</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C14" s="5">
         <v>14.95</v>
@@ -1760,12 +1879,12 @@
         <v>14.95</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C15" s="5">
         <v>0.21</v>
@@ -1777,12 +1896,12 @@
         <v>0.21</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C16" s="5">
         <v>0.73</v>
@@ -1794,12 +1913,12 @@
         <v>0.73</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C17" s="5">
         <v>24</v>
@@ -1812,12 +1931,12 @@
         <v>24</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C18" s="5">
         <v>6</v>
@@ -1830,12 +1949,12 @@
         <v>6</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C19" s="5">
         <v>26.16</v>
@@ -1848,12 +1967,12 @@
         <v>26.16</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C20" s="5">
         <v>0.72</v>
@@ -1866,12 +1985,12 @@
         <v>0.72</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C21" s="5">
         <v>12.49</v>
@@ -1884,12 +2003,12 @@
         <v>12.49</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C22" s="5">
         <v>4.99</v>
@@ -1902,12 +2021,12 @@
         <v>4.99</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C23" s="5">
         <v>7.99</v>
@@ -1920,12 +2039,12 @@
         <v>7.99</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C24" s="5">
         <v>6.49</v>
@@ -1938,12 +2057,12 @@
         <v>6.49</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C25" s="5">
         <v>1.7</v>
@@ -1956,12 +2075,12 @@
         <v>3.4</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C26" s="5">
         <v>5.99</v>
@@ -1974,12 +2093,12 @@
         <v>5.99</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C27" s="5">
         <v>8.99</v>
@@ -1992,7 +2111,7 @@
         <v>8.99</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -2002,7 +2121,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D29" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E29" s="2">
         <f>SUM(E2:E27)</f>
@@ -2161,10 +2280,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2241,317 +2360,308 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C4" s="2">
-        <v>21</v>
+        <v>21.99</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" s="2">
         <f>C4*D4</f>
-        <v>42</v>
+        <v>21.99</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>175</v>
       </c>
       <c r="C5" s="2">
-        <v>21.99</v>
+        <v>24.5</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" s="2">
         <f>C5*D5</f>
-        <v>21.99</v>
+        <v>24.5</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>74</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C6" s="2">
-        <v>0.55000000000000004</v>
+        <v>9.9499999999999993</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" s="2">
         <f>C6*D6</f>
-        <v>1.1000000000000001</v>
+        <v>9.9499999999999993</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="2">
-        <v>9.9499999999999993</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="18" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="20">
+        <v>13.95</v>
+      </c>
+      <c r="D7" s="18">
+        <v>1</v>
+      </c>
+      <c r="E7" s="20">
         <f>C7*D7</f>
-        <v>9.9499999999999993</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>23</v>
+        <v>13.95</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="2">
-        <v>9.9499999999999993</v>
+        <v>34</v>
+      </c>
+      <c r="C8" s="5">
+        <v>3.56</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" s="2">
         <f>C8*D8</f>
-        <v>9.9499999999999993</v>
+        <v>3.56</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>144</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="2">
-        <v>13.95</v>
+        <v>145</v>
+      </c>
+      <c r="C9" s="5">
+        <v>39</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" s="2">
         <f>C9*D9</f>
-        <v>13.95</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>29</v>
+        <v>39</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C10" s="5">
-        <v>6.95</v>
+        <v>14.95</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" s="2">
         <f>C10*D10</f>
-        <v>6.95</v>
+        <v>14.95</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="C11" s="5">
-        <v>3.56</v>
+        <v>4.25</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" s="2">
         <f>C11*D11</f>
-        <v>3.56</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>35</v>
+        <v>4.25</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>164</v>
-      </c>
-      <c r="B12" t="s">
-        <v>165</v>
+        <v>41</v>
       </c>
       <c r="C12" s="5">
-        <v>39</v>
+        <v>0.21</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" s="2">
         <f>C12*D12</f>
-        <v>39</v>
+        <v>0.21</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="5">
-        <v>14.95</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" s="2">
+    </row>
+    <row r="13" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="19">
+        <v>0.73</v>
+      </c>
+      <c r="D13" s="18">
+        <v>1</v>
+      </c>
+      <c r="E13" s="20">
         <f>C13*D13</f>
-        <v>14.95</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>43</v>
+        <v>0.73</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="C14" s="5">
-        <v>4.25</v>
+        <v>24</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" s="2">
         <f>C14*D14</f>
-        <v>4.25</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>171</v>
+        <v>24</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>186</v>
       </c>
       <c r="C15" s="5">
-        <v>0.21</v>
+        <v>9.99</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" s="2">
         <f>C15*D15</f>
-        <v>0.21</v>
+        <v>9.99</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="5">
-        <v>0.73</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16" s="2">
+    <row r="16" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="19">
+        <v>0.72</v>
+      </c>
+      <c r="D16" s="18">
+        <v>1</v>
+      </c>
+      <c r="E16" s="20">
         <f>C16*D16</f>
-        <v>0.73</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" s="5">
-        <v>14.99</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="19">
+        <v>12.49</v>
+      </c>
+      <c r="D17" s="18">
+        <v>1</v>
+      </c>
+      <c r="E17" s="20">
         <f>C17*D17</f>
-        <v>14.99</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>172</v>
+        <v>12.49</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>165</v>
       </c>
       <c r="C18" s="5">
-        <v>24</v>
+        <v>11.56</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" s="2">
         <f>C18*D18</f>
-        <v>24</v>
+        <v>11.56</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>51</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C19" s="5">
-        <v>0.72</v>
+        <v>26.16</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" s="2">
         <f>C19*D19</f>
-        <v>0.72</v>
+        <v>26.16</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -2559,14 +2669,14 @@
         <v>58</v>
       </c>
       <c r="C20" s="5">
-        <v>12.49</v>
+        <v>7.99</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" s="2">
         <f>C20*D20</f>
-        <v>12.49</v>
+        <v>7.99</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>59</v>
@@ -2574,209 +2684,166 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C21" s="5">
-        <v>6</v>
+        <v>8.49</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21" s="2">
         <f>C21*D21</f>
-        <v>6</v>
+        <v>8.49</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C22" s="5">
-        <v>26.16</v>
+        <v>6.49</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" s="2">
         <f>C22*D22</f>
-        <v>26.16</v>
+        <v>6.49</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>77</v>
-      </c>
-      <c r="B23" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="C23" s="5">
-        <v>9.5</v>
+        <v>5.99</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" s="2">
         <f>C23*D23</f>
-        <v>9.5</v>
+        <v>5.99</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C24" s="5">
-        <v>7.99</v>
+        <v>8.99</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" s="2">
         <f>C24*D24</f>
-        <v>7.99</v>
+        <v>8.99</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>66</v>
+        <v>187</v>
       </c>
       <c r="C25" s="5">
-        <v>8.49</v>
+        <v>5.99</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25" s="2">
         <f>C25*D25</f>
-        <v>8.49</v>
+        <v>5.99</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>80</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>64</v>
+        <v>189</v>
       </c>
       <c r="C26" s="5">
-        <v>6.49</v>
+        <v>3.35</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" s="2">
         <f>C26*D26</f>
-        <v>6.49</v>
+        <v>3.35</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>65</v>
+        <v>191</v>
+      </c>
+      <c r="G26" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>68</v>
+        <v>190</v>
       </c>
       <c r="C27" s="5">
-        <v>5.99</v>
+        <v>1.91</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27" s="2">
         <f>C27*D27</f>
-        <v>5.99</v>
+        <v>1.91</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>69</v>
+        <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>70</v>
-      </c>
-      <c r="C28" s="5">
-        <v>8.99</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28" s="2">
-        <f>C28*D28</f>
-        <v>8.99</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="C28" s="5"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="3"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>167</v>
-      </c>
-      <c r="C29" s="5">
-        <v>2.2200000000000002</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
+      <c r="D29" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="E29" s="2">
-        <f>C29*D29</f>
-        <v>2.2200000000000002</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>175</v>
-      </c>
-      <c r="C30" s="5">
-        <v>6.99</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30" s="2">
-        <f>C30*D30</f>
-        <v>6.99</v>
-      </c>
-      <c r="F30" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="G30" s="14" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="D32" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E32" s="2">
-        <f>SUM(E2:E30)</f>
-        <v>361.54000000000013</v>
-      </c>
-      <c r="F32" s="3"/>
+        <f>SUM(E2:E28)</f>
+        <v>319.1400000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="F31" s="3"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F35" s="3"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F36" s="3"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D37" s="1"/>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="38" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="3"/>
     </row>
     <row r="39" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
+      <c r="A39" s="7"/>
       <c r="C39" s="5"/>
       <c r="D39" s="7"/>
       <c r="E39" s="5"/>
@@ -2870,7 +2937,7 @@
       <c r="A52" s="7"/>
       <c r="C52" s="5"/>
       <c r="D52" s="7"/>
-      <c r="E52" s="5"/>
+      <c r="E52" s="8"/>
       <c r="F52" s="3"/>
     </row>
     <row r="53" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -2880,54 +2947,42 @@
       <c r="E53" s="8"/>
       <c r="F53" s="3"/>
     </row>
-    <row r="54" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A54" s="7"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="7"/>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="9"/>
+      <c r="D54" s="1"/>
       <c r="E54" s="8"/>
-      <c r="F54" s="3"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="9"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="8"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E59" s="10"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E58" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F4" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="F5" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="F6" r:id="rId3" display="https://www.digikey.com/en/products/detail/murata-electronics/NXFT15XH103FA1B025/5797781?utm_adgroup=Sensors%2C%20Transducers&amp;utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=Shopping_Supplier_Murata%20Electronics_0490_Co-op&amp;utm_term=&amp;utm_content=Sensors%2C%20Transducers&amp;gclid=CjwKCAjwlrqHBhByEiwAnLmYUIN7ZD1-mDXTNdIc9DDgoQCy29740f9_RUW7YZCqFlNNYm7NI25nlBoCfIYQAvD_BwE" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="F8" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="F9" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="F10" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="F11" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="F13" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="F18" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="F19" r:id="rId10" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="F22" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="F24" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="F25" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="F27" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="F28" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="F14" r:id="rId16" display="https://www.amazon.com/Loctite-Silicone-Waterproof-2-7-Ounce-908570/dp/B0002BBX3U/ref=pd_lpo_2?pd_rd_i=B0002BBX3U&amp;psc=1" xr:uid="{1F6D8AAD-B9B8-43FE-87F1-433B4407F947}"/>
-    <hyperlink ref="F17" r:id="rId17" display="https://www.amazon.com/dp/B08FX5ZL5K/ref=sspa_dk_detail_5?psc=1&amp;pd_rd_i=B08FX5ZL5K&amp;pd_rd_w=e5jQO&amp;pf_rd_p=887084a2-5c34-4113-a4f8-b7947847c308&amp;pd_rd_wg=bWF6o&amp;pf_rd_r=CS22RDP4FSCF2Y27BBMY&amp;pd_rd_r=89968cbb-363e-4c35-bec5-f1fa7e3104dd&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEzMTFWMjAzUEJGRlUxJmVuY3J5cHRlZElkPUEwNjA0NzUzMVk1RloxWTcyRlMzMCZlbmNyeXB0ZWRBZElkPUEwNTg3NTg5SlRYUlUxTzdQVDkzJndpZGdldE5hbWU9c3BfZGV0YWlsJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==" xr:uid="{B0428DB6-A15F-4F01-BC00-7D082CE88D76}"/>
-    <hyperlink ref="F30" r:id="rId18" display="https://www.amazon.com/MMOBIEL-Airplane-Helicopter-Compatible-Raspberry/dp/B097RD8RB7/ref=sr_1_21?dchild=1&amp;keywords=servo+motor&amp;qid=1630634747&amp;s=industrial&amp;sr=1-21" xr:uid="{05A6965A-683F-4324-910E-F4409CD4BC98}"/>
-    <hyperlink ref="G30" r:id="rId19" display="https://www.amazon.com/Micro-Servos-Helicopter-Airplane-Controls/dp/B07MLR1498/ref=sr_1_1_sspa?dchild=1&amp;keywords=servo%2Bmotor&amp;qid=1630634747&amp;s=industrial&amp;sr=1-1-spons&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUExWEFCNklEU1hBRUlSJmVuY3J5cHRlZElkPUEwNjMzMjQyMkVOU1NTMkE5REhVWiZlbmNyeXB0ZWRBZElkPUEwMzAzNTAzMUdNV0YxTTJFN0NFRCZ3aWRnZXROYW1lPXNwX2F0ZiZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU&amp;th=1" xr:uid="{1D7CB87D-C970-4DAE-84E2-174699211067}"/>
+    <hyperlink ref="F4" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="F6" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="F7" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="F8" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="F10" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="F14" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="F16" r:id="rId7" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="F19" r:id="rId8" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="F20" r:id="rId9" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="F21" r:id="rId10" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="F23" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="F24" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="F11" r:id="rId13" display="https://www.amazon.com/Loctite-Silicone-Waterproof-2-7-Ounce-908570/dp/B0002BBX3U/ref=pd_lpo_2?pd_rd_i=B0002BBX3U&amp;psc=1" xr:uid="{1F6D8AAD-B9B8-43FE-87F1-433B4407F947}"/>
+    <hyperlink ref="F15" r:id="rId14" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId20"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId15"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2941,498 +2996,630 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="23" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" s="6">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="6">
-        <f t="shared" ref="E2:E7" si="0">C2*D2</f>
-        <v>16.899999999999999</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>83</v>
-      </c>
+    <row r="2" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="11">
-        <v>0.95</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2">
-        <f t="shared" si="0"/>
-        <v>1.9</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>86</v>
-      </c>
+      <c r="A3" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B4" t="s">
-        <v>88</v>
+        <v>162</v>
       </c>
       <c r="C4" s="6">
+        <v>29.5</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6">
+        <f t="shared" ref="E4:E13" si="0">C4*D4</f>
+        <v>29.5</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="6">
         <v>9.0399999999999991</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
         <f t="shared" si="0"/>
         <v>9.0399999999999991</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" s="5">
-        <v>9.5</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2">
-        <f t="shared" si="0"/>
-        <v>9.5</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C6" s="5">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C8" s="6"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="5">
         <v>14.99</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
         <f t="shared" si="0"/>
         <v>14.99</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7" s="5">
+      <c r="F10" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C11" s="5"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="5">
         <v>1.05</v>
       </c>
-      <c r="D7">
+      <c r="D13">
         <v>2</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E13" s="2">
         <f t="shared" si="0"/>
         <v>2.1</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F13" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="11">
+        <v>0.95</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" s="2">
+        <f>C14*D14</f>
+        <v>1.9</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="5">
+        <v>6.95</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2">
+        <f>C21*D21</f>
+        <v>6.95</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C22" s="5"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>198</v>
+      </c>
+      <c r="C24" s="2">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2">
+        <f>C24*D24</f>
+        <v>4</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>197</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="26">
+        <v>48</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" s="15">
+        <f t="shared" ref="E28:E46" si="1">C28*D28</f>
+        <v>48</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G28" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" s="26">
+        <v>2.92</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" s="26">
+        <f t="shared" si="1"/>
+        <v>2.92</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="26">
+        <v>14.94</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" s="26">
+        <f t="shared" si="1"/>
+        <v>14.94</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C8" s="5"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D10" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E10" s="6">
-        <f>SUM(E2:E7)</f>
-        <v>54.43</v>
+      <c r="B31" t="s">
+        <v>158</v>
+      </c>
+      <c r="C31" s="26">
+        <v>0.71</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" s="26">
+        <f t="shared" si="1"/>
+        <v>0.71</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>148</v>
+      </c>
+      <c r="C32" s="26">
+        <v>11.99</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" s="26">
+        <f t="shared" si="1"/>
+        <v>11.99</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>153</v>
+      </c>
+      <c r="C33" s="26">
+        <v>1.99</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33" s="26">
+        <f t="shared" si="1"/>
+        <v>3.98</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>199</v>
+      </c>
+      <c r="C34" s="5">
+        <v>1.91</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" s="26">
+        <f>C34*D34</f>
+        <v>1.91</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>185</v>
+      </c>
+      <c r="C35" s="15"/>
+      <c r="E35" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>154</v>
+      </c>
+      <c r="C36" s="15"/>
+      <c r="E36" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>155</v>
+      </c>
+      <c r="C37" s="15"/>
+      <c r="E37" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>156</v>
+      </c>
+      <c r="C38" s="15"/>
+      <c r="E38" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>157</v>
+      </c>
+      <c r="C39" s="15"/>
+      <c r="E39" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>160</v>
+      </c>
+      <c r="C40" s="15">
+        <v>4.79</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40" s="26">
+        <f t="shared" si="1"/>
+        <v>4.79</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>171</v>
+      </c>
+      <c r="C41" s="15">
+        <v>4.28</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" s="26">
+        <f t="shared" si="1"/>
+        <v>4.28</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>170</v>
+      </c>
+      <c r="C42" s="15"/>
+      <c r="E42" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>169</v>
+      </c>
+      <c r="C43" s="15"/>
+      <c r="E43" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>167</v>
+      </c>
+      <c r="C44" s="15">
+        <v>5.19</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" s="26">
+        <f t="shared" si="1"/>
+        <v>5.19</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>173</v>
+      </c>
+      <c r="C45" s="15">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="D45">
+        <v>4</v>
+      </c>
+      <c r="E45" s="26">
+        <f t="shared" si="1"/>
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>152</v>
+      </c>
+      <c r="C46" s="26">
+        <v>6.99</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46" s="26">
+        <f t="shared" si="1"/>
+        <v>6.99</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G46" s="14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D48" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E48" s="6">
+        <f>SUM(E4:E46)</f>
+        <v>183.46</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A23:E23"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="F3" r:id="rId2" display="https://www.digikey.com/en/products/detail/adafruit-industries-llc/161/7244927?utm_adgroup=Optical%20Sensors%20-%20Photo%20Detectors%20-%20CdS%20Cells&amp;utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=Shopping_Product_Sensors%2C%20Transducers&amp;utm_term=&amp;utm_content=Optical%20Sensors%20-%20Photo%20Detectors%20-%20CdS%20Cells&amp;gclid=Cj0KCQjw0emHBhC1ARIsAL1QGNfYpvf3MPzpzy_vSz-l0BRZcJEGml2ZntF2PRxP90FCoKFTgAeQwSQaAkHrEALw_wcB" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="F4" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="F7" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="F14" r:id="rId1" display="https://www.digikey.com/en/products/detail/adafruit-industries-llc/161/7244927?utm_adgroup=Optical%20Sensors%20-%20Photo%20Detectors%20-%20CdS%20Cells&amp;utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=Shopping_Product_Sensors%2C%20Transducers&amp;utm_term=&amp;utm_content=Optical%20Sensors%20-%20Photo%20Detectors%20-%20CdS%20Cells&amp;gclid=Cj0KCQjw0emHBhC1ARIsAL1QGNfYpvf3MPzpzy_vSz-l0BRZcJEGml2ZntF2PRxP90FCoKFTgAeQwSQaAkHrEALw_wcB" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="F7" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="F13" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="F28" r:id="rId4" xr:uid="{F6976BFF-2E0E-4D19-A331-011A0757C4C4}"/>
+    <hyperlink ref="F30" r:id="rId5" xr:uid="{6AC7DA1D-72DD-4BCF-A65C-0F85E77A1EE2}"/>
+    <hyperlink ref="F29" r:id="rId6" xr:uid="{AF15C753-D67D-42F4-8459-18BC760720ED}"/>
+    <hyperlink ref="F40" r:id="rId7" display="https://www.amazon.com/Glass-Vials-Dram-Pack-12/dp/B002JV89OC/ref=bmx_dp_3kbesyen_3/142-3191690-8910228?pd_rd_w=ysrgG&amp;pf_rd_p=862b4b8b-7a18-40e3-a54d-9d43f8d57f92&amp;pf_rd_r=9X0PDZ13QEC4W8TDH6RB&amp;pd_rd_r=139c4d35-c881-4110-9a72-9aecf35064cb&amp;pd_rd_wg=sLgww&amp;pd_rd_i=B002JV89OC&amp;psc=1" xr:uid="{55AFE21C-F23D-485E-98A4-0BAD086CC07F}"/>
+    <hyperlink ref="F33" r:id="rId8" display="https://www.mouser.com/ProductDetail/Bivar/UV5TZ-390-15?qs=cy%252BcHHACsGLfBNaawfbUXg%3D%3D" xr:uid="{99174322-4042-4F2D-9B61-80044FF8AB31}"/>
+    <hyperlink ref="F46" r:id="rId9" display="https://www.amazon.com/MMOBIEL-Airplane-Helicopter-Compatible-Raspberry/dp/B097RD8RB7/ref=sr_1_21?dchild=1&amp;keywords=servo+motor&amp;qid=1630634747&amp;s=industrial&amp;sr=1-21" xr:uid="{4E5C0FE7-50AF-4DBE-8ADE-90A296A160F5}"/>
+    <hyperlink ref="G46" r:id="rId10" display="https://www.amazon.com/Micro-Servos-Helicopter-Airplane-Controls/dp/B07MLR1498/ref=sr_1_1_sspa?dchild=1&amp;keywords=servo%2Bmotor&amp;qid=1630634747&amp;s=industrial&amp;sr=1-1-spons&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUExWEFCNklEU1hBRUlSJmVuY3J5cHRlZElkPUEwNjMzMjQyMkVOU1NTMkE5REhVWiZlbmNyeXB0ZWRBZElkPUEwMzAzNTAzMUdNV0YxTTJFN0NFRCZ3aWRnZXROYW1lPXNwX2F0ZiZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU&amp;th=1" xr:uid="{080CF474-8A4C-4840-AEB1-202F48A05C20}"/>
+    <hyperlink ref="F41" r:id="rId11" xr:uid="{FFC63B54-36F7-40C9-8FA3-A3D60880C6D6}"/>
+    <hyperlink ref="F21" r:id="rId12" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="F44" r:id="rId13" xr:uid="{D3F90E71-CE35-4EE2-A742-82D7825EAF39}"/>
+    <hyperlink ref="F45" r:id="rId14" xr:uid="{966F1E95-3340-4951-9842-7F5EBEFC1A08}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId15"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F7"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.5546875" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" customWidth="1"/>
-    <col min="4" max="4" width="9.77734375" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" customWidth="1"/>
-    <col min="6" max="6" width="53.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="6">
-        <v>13.1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="6">
-        <f>C2*D2</f>
-        <v>13.1</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C3" s="6">
-        <v>68.900000000000006</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="6">
-        <f>C3*D3</f>
-        <v>68.900000000000006</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C4" s="6">
-        <v>2.95</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="6">
-        <f>C4*D4</f>
-        <v>2.95</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="5">
-        <v>6</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2">
-        <f>C5*D5</f>
-        <v>6</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D7" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E7" s="6">
-        <f>SUM(E2:E5)</f>
-        <v>90.95</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="F4" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G9"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="2" max="2" width="19.21875" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" customWidth="1"/>
-    <col min="4" max="4" width="9.77734375" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" customWidth="1"/>
-    <col min="6" max="6" width="71.6640625" customWidth="1"/>
-    <col min="7" max="7" width="193.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" s="5">
-        <v>48</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2">
-        <f>C2*D2</f>
-        <v>48</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="G2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C3" s="5">
-        <v>2.92</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="5">
-        <f>C3*D3</f>
-        <v>2.92</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C4" s="5">
-        <v>3.31</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4" s="5">
-        <f>C4*D4</f>
-        <v>6.62</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C5" s="5">
-        <v>14.94</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5">
-        <f>C5*D5</f>
-        <v>14.94</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C6" s="5">
-        <v>0.71</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" s="5">
-        <f>C6*D6</f>
-        <v>0.71</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>170</v>
-      </c>
-      <c r="C7" s="5">
-        <v>11.99</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="5">
-        <f>C7*D7</f>
-        <v>11.99</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D9" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E9" s="2">
-        <f>SUM(E2:E7)</f>
-        <v>85.179999999999993</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="F5" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
-    <hyperlink ref="F3" r:id="rId3" xr:uid="{B464AC44-5C60-4C50-9B4A-DDB1BF392FAD}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
@@ -3452,7 +3639,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -3464,7 +3651,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -3472,7 +3659,7 @@
     </row>
     <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="B2" s="5">
         <v>0.45</v>
@@ -3485,15 +3672,15 @@
         <v>0.9</v>
       </c>
       <c r="E2" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="B3" s="5">
         <v>0.98</v>
@@ -3506,15 +3693,15 @@
         <v>1.96</v>
       </c>
       <c r="E3" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="B4" s="5">
         <v>0.42</v>
@@ -3527,15 +3714,15 @@
         <v>0.42</v>
       </c>
       <c r="E4" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="B5" s="5">
         <v>0.67</v>
@@ -3548,15 +3735,15 @@
         <v>1.34</v>
       </c>
       <c r="E5" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="B6" s="5">
         <v>0.1</v>
@@ -3569,15 +3756,15 @@
         <v>0.30000000000000004</v>
       </c>
       <c r="E6" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="B7" s="5">
         <v>0.1</v>
@@ -3590,15 +3777,15 @@
         <v>0.2</v>
       </c>
       <c r="E7" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="B8" s="5">
         <v>0.1</v>
@@ -3611,15 +3798,15 @@
         <v>0.1</v>
       </c>
       <c r="E8" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="B9" s="5">
         <v>0.1</v>
@@ -3632,15 +3819,15 @@
         <v>0.2</v>
       </c>
       <c r="E9" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="B10" s="5">
         <v>0.1</v>
@@ -3653,15 +3840,15 @@
         <v>0.1</v>
       </c>
       <c r="E10" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="B11" s="5">
         <v>0.37</v>
@@ -3674,15 +3861,15 @@
         <v>0.37</v>
       </c>
       <c r="E11" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="B12" s="5">
         <v>0.7</v>
@@ -3695,15 +3882,15 @@
         <v>0.7</v>
       </c>
       <c r="E12" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="B13" s="5">
         <v>0.61</v>
@@ -3716,15 +3903,15 @@
         <v>1.22</v>
       </c>
       <c r="E13" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="B14" s="5">
         <v>0.81</v>
@@ -3737,15 +3924,15 @@
         <v>1.62</v>
       </c>
       <c r="E14" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="B15" s="5">
         <v>1.1200000000000001</v>
@@ -3758,15 +3945,15 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="E15" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="B16" s="5">
         <v>8.99</v>
@@ -3779,12 +3966,12 @@
         <v>17.98</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="B17" s="5">
         <v>14.99</v>
@@ -3797,12 +3984,12 @@
         <v>14.99</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D19" s="8">
         <f>SUM(D2:D17)</f>
@@ -3830,40 +4017,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB3D3147-0C46-41A1-A682-186F1A61D0D5}">
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="5">
-        <v>9.99</v>
-      </c>
-      <c r="D1">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2">
-        <f>C1*D1</f>
-        <v>9.99</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F1" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/BillOfMaterials.xlsx
+++ b/BillOfMaterials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\PycharmProjects\Drone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E70D21A-E69A-4BCE-8617-4C870C9A3E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19962E52-DF20-4364-BE93-1C30EBA91469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="809" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="809" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Grey ABS Case" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="202">
   <si>
     <t>COMPONENT</t>
   </si>
@@ -636,6 +636,12 @@
   </si>
   <si>
     <t>IRL7833 MOSFET</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Thorlabs - LA1540-AB N-BK7 Plano-Convex Lens, Ø1/2", f = 15 mm, AR Coating: 400 - 1100 nm</t>
   </si>
 </sst>
 </file>
@@ -2282,7 +2288,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -2979,10 +2985,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3289,7 +3295,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="15">
-        <f t="shared" ref="E28:E46" si="1">C28*D28</f>
+        <f t="shared" ref="E28:E47" si="1">C28*D28</f>
         <v>48</v>
       </c>
       <c r="F28" s="3" t="s">
@@ -3382,53 +3388,61 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>153</v>
+        <v>200</v>
       </c>
       <c r="C33" s="26">
-        <v>1.99</v>
+        <v>35</v>
       </c>
       <c r="D33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E33" s="26">
         <f t="shared" si="1"/>
-        <v>3.98</v>
+        <v>35</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>161</v>
+        <v>201</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>199</v>
-      </c>
-      <c r="C34" s="5">
-        <v>1.91</v>
+        <v>153</v>
+      </c>
+      <c r="C34" s="26">
+        <v>1.99</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E34" s="26">
-        <f>C34*D34</f>
-        <v>1.91</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>193</v>
+        <f t="shared" si="1"/>
+        <v>3.98</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>185</v>
-      </c>
-      <c r="C35" s="15"/>
+        <v>199</v>
+      </c>
+      <c r="C35" s="5">
+        <v>1.91</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
       <c r="E35" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>C35*D35</f>
+        <v>1.91</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>154</v>
+        <v>185</v>
       </c>
       <c r="C36" s="15"/>
       <c r="E36" s="26">
@@ -3438,7 +3452,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C37" s="15"/>
       <c r="E37" s="26">
@@ -3448,7 +3462,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C38" s="15"/>
       <c r="E38" s="26">
@@ -3458,7 +3472,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C39" s="15"/>
       <c r="E39" s="26">
@@ -3468,53 +3482,53 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>160</v>
-      </c>
-      <c r="C40" s="15">
-        <v>4.79</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="C40" s="15"/>
       <c r="E40" s="26">
         <f t="shared" si="1"/>
-        <v>4.79</v>
-      </c>
-      <c r="F40" s="14" t="s">
-        <v>159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="C41" s="15">
-        <v>4.28</v>
+        <v>4.79</v>
       </c>
       <c r="D41">
         <v>1</v>
       </c>
       <c r="E41" s="26">
         <f t="shared" si="1"/>
-        <v>4.28</v>
+        <v>4.79</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>170</v>
-      </c>
-      <c r="C42" s="15"/>
+        <v>171</v>
+      </c>
+      <c r="C42" s="15">
+        <v>4.28</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
       <c r="E42" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.28</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C43" s="15"/>
       <c r="E43" s="26">
@@ -3524,68 +3538,78 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>167</v>
-      </c>
-      <c r="C44" s="15">
-        <v>5.19</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="C44" s="15"/>
       <c r="E44" s="26">
         <f t="shared" si="1"/>
-        <v>5.19</v>
-      </c>
-      <c r="F44" s="14" t="s">
-        <v>168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C45" s="15">
-        <v>2.3199999999999998</v>
+        <v>5.19</v>
       </c>
       <c r="D45">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E45" s="26">
         <f t="shared" si="1"/>
-        <v>9.2799999999999994</v>
+        <v>5.19</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>152</v>
-      </c>
-      <c r="C46" s="26">
-        <v>6.99</v>
+        <v>173</v>
+      </c>
+      <c r="C46" s="15">
+        <v>2.3199999999999998</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E46" s="26">
         <f t="shared" si="1"/>
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>152</v>
+      </c>
+      <c r="C47" s="26">
         <v>6.99</v>
       </c>
-      <c r="F46" s="14" t="s">
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" s="26">
+        <f t="shared" si="1"/>
+        <v>6.99</v>
+      </c>
+      <c r="F47" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="G46" s="14" t="s">
+      <c r="G47" s="14" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D48" s="1" t="s">
+    <row r="49" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D49" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E48" s="6">
-        <f>SUM(E4:E46)</f>
-        <v>183.46</v>
+      <c r="E49" s="6">
+        <f>SUM(E4:E47)</f>
+        <v>218.46</v>
       </c>
     </row>
   </sheetData>
@@ -3605,17 +3629,18 @@
     <hyperlink ref="F28" r:id="rId4" xr:uid="{F6976BFF-2E0E-4D19-A331-011A0757C4C4}"/>
     <hyperlink ref="F30" r:id="rId5" xr:uid="{6AC7DA1D-72DD-4BCF-A65C-0F85E77A1EE2}"/>
     <hyperlink ref="F29" r:id="rId6" xr:uid="{AF15C753-D67D-42F4-8459-18BC760720ED}"/>
-    <hyperlink ref="F40" r:id="rId7" display="https://www.amazon.com/Glass-Vials-Dram-Pack-12/dp/B002JV89OC/ref=bmx_dp_3kbesyen_3/142-3191690-8910228?pd_rd_w=ysrgG&amp;pf_rd_p=862b4b8b-7a18-40e3-a54d-9d43f8d57f92&amp;pf_rd_r=9X0PDZ13QEC4W8TDH6RB&amp;pd_rd_r=139c4d35-c881-4110-9a72-9aecf35064cb&amp;pd_rd_wg=sLgww&amp;pd_rd_i=B002JV89OC&amp;psc=1" xr:uid="{55AFE21C-F23D-485E-98A4-0BAD086CC07F}"/>
-    <hyperlink ref="F33" r:id="rId8" display="https://www.mouser.com/ProductDetail/Bivar/UV5TZ-390-15?qs=cy%252BcHHACsGLfBNaawfbUXg%3D%3D" xr:uid="{99174322-4042-4F2D-9B61-80044FF8AB31}"/>
-    <hyperlink ref="F46" r:id="rId9" display="https://www.amazon.com/MMOBIEL-Airplane-Helicopter-Compatible-Raspberry/dp/B097RD8RB7/ref=sr_1_21?dchild=1&amp;keywords=servo+motor&amp;qid=1630634747&amp;s=industrial&amp;sr=1-21" xr:uid="{4E5C0FE7-50AF-4DBE-8ADE-90A296A160F5}"/>
-    <hyperlink ref="G46" r:id="rId10" display="https://www.amazon.com/Micro-Servos-Helicopter-Airplane-Controls/dp/B07MLR1498/ref=sr_1_1_sspa?dchild=1&amp;keywords=servo%2Bmotor&amp;qid=1630634747&amp;s=industrial&amp;sr=1-1-spons&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUExWEFCNklEU1hBRUlSJmVuY3J5cHRlZElkPUEwNjMzMjQyMkVOU1NTMkE5REhVWiZlbmNyeXB0ZWRBZElkPUEwMzAzNTAzMUdNV0YxTTJFN0NFRCZ3aWRnZXROYW1lPXNwX2F0ZiZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU&amp;th=1" xr:uid="{080CF474-8A4C-4840-AEB1-202F48A05C20}"/>
-    <hyperlink ref="F41" r:id="rId11" xr:uid="{FFC63B54-36F7-40C9-8FA3-A3D60880C6D6}"/>
+    <hyperlink ref="F41" r:id="rId7" display="https://www.amazon.com/Glass-Vials-Dram-Pack-12/dp/B002JV89OC/ref=bmx_dp_3kbesyen_3/142-3191690-8910228?pd_rd_w=ysrgG&amp;pf_rd_p=862b4b8b-7a18-40e3-a54d-9d43f8d57f92&amp;pf_rd_r=9X0PDZ13QEC4W8TDH6RB&amp;pd_rd_r=139c4d35-c881-4110-9a72-9aecf35064cb&amp;pd_rd_wg=sLgww&amp;pd_rd_i=B002JV89OC&amp;psc=1" xr:uid="{55AFE21C-F23D-485E-98A4-0BAD086CC07F}"/>
+    <hyperlink ref="F34" r:id="rId8" display="https://www.mouser.com/ProductDetail/Bivar/UV5TZ-390-15?qs=cy%252BcHHACsGLfBNaawfbUXg%3D%3D" xr:uid="{99174322-4042-4F2D-9B61-80044FF8AB31}"/>
+    <hyperlink ref="F47" r:id="rId9" display="https://www.amazon.com/MMOBIEL-Airplane-Helicopter-Compatible-Raspberry/dp/B097RD8RB7/ref=sr_1_21?dchild=1&amp;keywords=servo+motor&amp;qid=1630634747&amp;s=industrial&amp;sr=1-21" xr:uid="{4E5C0FE7-50AF-4DBE-8ADE-90A296A160F5}"/>
+    <hyperlink ref="G47" r:id="rId10" display="https://www.amazon.com/Micro-Servos-Helicopter-Airplane-Controls/dp/B07MLR1498/ref=sr_1_1_sspa?dchild=1&amp;keywords=servo%2Bmotor&amp;qid=1630634747&amp;s=industrial&amp;sr=1-1-spons&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUExWEFCNklEU1hBRUlSJmVuY3J5cHRlZElkPUEwNjMzMjQyMkVOU1NTMkE5REhVWiZlbmNyeXB0ZWRBZElkPUEwMzAzNTAzMUdNV0YxTTJFN0NFRCZ3aWRnZXROYW1lPXNwX2F0ZiZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU&amp;th=1" xr:uid="{080CF474-8A4C-4840-AEB1-202F48A05C20}"/>
+    <hyperlink ref="F42" r:id="rId11" xr:uid="{FFC63B54-36F7-40C9-8FA3-A3D60880C6D6}"/>
     <hyperlink ref="F21" r:id="rId12" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="F44" r:id="rId13" xr:uid="{D3F90E71-CE35-4EE2-A742-82D7825EAF39}"/>
-    <hyperlink ref="F45" r:id="rId14" xr:uid="{966F1E95-3340-4951-9842-7F5EBEFC1A08}"/>
+    <hyperlink ref="F45" r:id="rId13" xr:uid="{D3F90E71-CE35-4EE2-A742-82D7825EAF39}"/>
+    <hyperlink ref="F46" r:id="rId14" xr:uid="{966F1E95-3340-4951-9842-7F5EBEFC1A08}"/>
+    <hyperlink ref="F33" r:id="rId15" display="https://www.thorlabs.com/thorproduct.cfm?partnumber=LA1540-AB" xr:uid="{60FED1D9-505D-4BE0-9242-822F60ECD50B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId15"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId16"/>
 </worksheet>
 </file>
 
